--- a/ProblemaToy.xlsx
+++ b/ProblemaToy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celso Assis\Desktop\Problema Toy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F25E85-C864-40FB-AEE7-416B5D45D1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552BC52-C005-41AE-8028-EAA6316B5AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,12 @@
     <sheet name="ColaboradoresCargaHoraria" sheetId="5" r:id="rId5"/>
     <sheet name="Distancia (d)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
   <si>
     <t>Area</t>
   </si>
@@ -158,6 +157,21 @@
   </si>
   <si>
     <t>Distancia p1/p2</t>
+  </si>
+  <si>
+    <t>Num Colaboradores</t>
+  </si>
+  <si>
+    <t>Agua e Ar - Copa limpeza 2</t>
+  </si>
+  <si>
+    <t>Predio da Antiga Sala de Controle - Copa limpeza 2</t>
+  </si>
+  <si>
+    <t>Planta Ouro - Copa limpeza 2</t>
+  </si>
+  <si>
+    <t>Dom</t>
   </si>
 </sst>
 </file>
@@ -507,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -520,9 +534,10 @@
     <col min="3" max="3" width="28.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,15 +569,21 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -571,39 +592,45 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -612,24 +639,33 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -638,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -655,45 +691,57 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -719,16 +767,22 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -751,34 +805,37 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -786,80 +843,98 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -885,115 +960,139 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
       <c r="B14">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1002,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1011,21 +1110,30 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1043,31 +1151,148 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1136,6 +1361,9 @@
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
     <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1426,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1646,9 +1874,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2223,9 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F089D22-0751-4232-AD2D-AC3417B45CE2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/ProblemaToy.xlsx
+++ b/ProblemaToy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celso Assis\Desktop\Problema Toy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552BC52-C005-41AE-8028-EAA6316B5AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D20372-6354-486C-9875-9ACD0C26D252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -624,7 +624,7 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -703,7 +703,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -817,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -858,7 +858,7 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -896,7 +896,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -934,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -972,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1013,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1051,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>30</v>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>30</v>
@@ -1133,7 +1133,7 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1171,7 +1171,7 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1209,7 +1209,7 @@
         <v>47</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1247,7 +1247,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1654,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
